--- a/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
+++ b/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A394D-506C-4395-B091-52F1A87AD801}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8575BBE-D086-46C7-946C-AE3006B8FE34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24V_And_SystemLoad" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
   <si>
     <t>Label</t>
   </si>
@@ -118,21 +118,9 @@
     <t>DDM 800 Loop - 14</t>
   </si>
   <si>
-    <t>DC value has reached 95% for panel Node1-Pro32xD,Load at 40V has reached 95% for panel Node1-Pro32xD-Built-in Loop-A</t>
-  </si>
-  <si>
     <t>DDM 800 Loop - 15</t>
   </si>
   <si>
-    <t>DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A</t>
-  </si>
-  <si>
-    <t>AC value has reached 95% for panel Node1-Pro32xD,DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A</t>
-  </si>
-  <si>
-    <t>AC value has reached 100% for panel Node1-Pro32xD,DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A</t>
-  </si>
-  <si>
     <t>Device Tye</t>
   </si>
   <si>
@@ -182,6 +170,21 @@
   </si>
   <si>
     <t>Extra IS units value has reached 100% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Load at 40V has reached 95% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 95% for panel Node1-Pro32xD,</t>
+  </si>
+  <si>
+    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD,AC value has reached 95% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD,AC value has reached 100% for panel Node1-Pro32xD</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -882,8 +885,8 @@
       <c r="C8" s="5">
         <v>13</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -897,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -905,13 +908,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -927,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEFEA0C-71BE-4095-A5F4-5BD591AAB431}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1027,8 +1030,8 @@
       <c r="C8" s="5">
         <v>13</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1042,7 +1045,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1050,13 +1053,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1101,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>17</v>
@@ -1119,7 +1122,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
       <c r="F2" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>18</v>
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1179,13 +1182,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
@@ -1193,13 +1196,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -1207,13 +1210,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>18</v>
@@ -1221,13 +1224,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>18</v>
@@ -1235,13 +1238,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>18</v>
@@ -1249,13 +1252,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>18</v>
@@ -1263,13 +1266,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>18</v>
@@ -1277,13 +1280,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>18</v>
@@ -1302,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EE8AE8-C7D8-422C-BB56-DD8BE88C77A2}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1328,7 +1331,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>17</v>
@@ -1349,10 +1352,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
       <c r="F2" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1401,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -1423,13 +1426,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -1437,13 +1440,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
@@ -1451,13 +1454,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -1465,13 +1468,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>

--- a/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
+++ b/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8575BBE-D086-46C7-946C-AE3006B8FE34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA1FD8E-51FB-43A5-83C3-AD4BF5A9D130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24V_And_SystemLoad" sheetId="6" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Load at 24V has reached 95% for panel Node1-Pro32xD,System load has reached 95% for panel Node1-Pro32xD</t>
-  </si>
-  <si>
     <t>Load at 24V has reached 100% for panel Node1-Pro32xD,System load has reached 100% for panel Node1-Pro32xD</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A</t>
   </si>
   <si>
-    <t>Load at 40V has reached 95% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 95% for panel Node1-Pro32xD,</t>
-  </si>
-  <si>
     <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD,AC value has reached 100% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 95% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>Load at 24V has reached 95% for panel Node1-Pro32xD,System load has reached 100% for panel Node1-Pro32xD</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -877,44 +877,44 @@
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="5">
         <v>13</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEFEA0C-71BE-4095-A5F4-5BD591AAB431}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -1022,44 +1022,44 @@
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="5">
         <v>13</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>36</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039028F-250C-43A1-A01D-74387B073A3C}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1101,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>17</v>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -1122,7 +1122,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
       <c r="F2" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>18</v>
@@ -1133,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>18</v>
@@ -1224,13 +1224,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>18</v>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>18</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>18</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>18</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>18</v>
@@ -1331,7 +1331,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>17</v>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -1352,10 +1352,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
       <c r="F2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -1404,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -1426,13 +1426,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -1440,13 +1440,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -1468,13 +1468,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>

--- a/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
+++ b/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA1FD8E-51FB-43A5-83C3-AD4BF5A9D130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD26CD-8D2C-4C5B-B687-975BD1E97091}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24V_And_SystemLoad" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="52">
   <si>
     <t>Label</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Load at 24V has reached 95% for panel Node1-Pro32xD,System load has reached 100% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Main Processor 24V (A)</t>
   </si>
 </sst>
 </file>
@@ -638,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,6 +655,7 @@
     <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -659,7 +666,9 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
-      <c r="G1" s="9"/>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="10"/>
     </row>
@@ -675,6 +684,9 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1075,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039028F-250C-43A1-A01D-74387B073A3C}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
+++ b/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD26CD-8D2C-4C5B-B687-975BD1E97091}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91492DA9-C69E-47C7-8D53-511CE2B170EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24V_And_SystemLoad" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
   <si>
     <t>Label</t>
   </si>
@@ -169,21 +169,6 @@
     <t>Extra IS units value has reached 100% for panel Node1-Pro32xD</t>
   </si>
   <si>
-    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A</t>
-  </si>
-  <si>
-    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD</t>
-  </si>
-  <si>
-    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD,AC value has reached 95% for panel Node1-Pro32xD</t>
-  </si>
-  <si>
-    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 100% for panel Node1-Pro32xD,AC value has reached 100% for panel Node1-Pro32xD</t>
-  </si>
-  <si>
-    <t>Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,DC value has reached 95% for panel Node1-Pro32xD</t>
-  </si>
-  <si>
     <t>Load at 24V has reached 95% for panel Node1-Pro32xD,System load has reached 100% for panel Node1-Pro32xD</t>
   </si>
   <si>
@@ -191,6 +176,39 @@
   </si>
   <si>
     <t>Main Processor 24V (A)</t>
+  </si>
+  <si>
+    <t>DC value has reached 95% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 95% for panel Node1-Pro32xD-Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>40V (A)</t>
+  </si>
+  <si>
+    <t>DC Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>40V Loading Details Name</t>
+  </si>
+  <si>
+    <t>AC Loading Details Name</t>
+  </si>
+  <si>
+    <t>Signal (AC Units)</t>
+  </si>
+  <si>
+    <t>AC value has reached 95% for panel Node1-Pro32xD,DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,System load has reached 100% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>AC value has reached 100% for panel Node1-Pro32xD,DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,System load has reached 100% for panel Node1-Pro32xD</t>
   </si>
 </sst>
 </file>
@@ -644,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +685,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="10"/>
@@ -685,7 +703,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -767,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -798,7 +816,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,6 +826,8 @@
     <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,8 +838,12 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -834,6 +858,12 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -887,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -895,10 +925,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -909,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>48</v>
@@ -926,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +973,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,6 +983,7 @@
     <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -963,7 +994,9 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
-      <c r="G1" s="9"/>
+      <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="10"/>
     </row>
@@ -979,6 +1012,9 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1032,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1040,13 +1076,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1054,13 +1090,13 @@
         <v>25</v>
       </c>
       <c r="C9" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039028F-250C-43A1-A01D-74387B073A3C}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
+++ b/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91492DA9-C69E-47C7-8D53-511CE2B170EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="24V_And_SystemLoad" sheetId="6" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="IS_Units" sheetId="9" r:id="rId4"/>
     <sheet name="Extra_ISUnits" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
   <si>
     <t>Label</t>
   </si>
@@ -209,12 +208,27 @@
   </si>
   <si>
     <t>AC value has reached 100% for panel Node1-Pro32xD,DC value has reached 100% for panel Node1-Pro32xD,Load at 40V has reached 100% for panel Node1-Pro32xD-Built-in Loop-A,System load has reached 100% for panel Node1-Pro32xD</t>
+  </si>
+  <si>
+    <t>Device Type</t>
+  </si>
+  <si>
+    <t>Ancillary Conventional</t>
+  </si>
+  <si>
+    <t>Powered Value</t>
+  </si>
+  <si>
+    <t>Loop Powered</t>
+  </si>
+  <si>
+    <t>DDM 800 Loop - 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -331,11 +345,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -371,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -659,7 +685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -677,13 +703,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
@@ -812,11 +838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99009C33-7F5F-4C2C-8A7A-836BE69C9FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,18 +852,19 @@
     <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="G1" s="3" t="s">
         <v>53</v>
       </c>
@@ -916,19 +943,31 @@
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5">
         <v>14</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -944,6 +983,12 @@
       <c r="D9" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -957,6 +1002,12 @@
       </c>
       <c r="D10" s="13" t="s">
         <v>49</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEFEA0C-71BE-4095-A5F4-5BD591AAB431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -987,13 +1038,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
@@ -1120,10 +1171,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039028F-250C-43A1-A01D-74387B073A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1141,13 +1192,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="15" t="s">
         <v>39</v>
       </c>
@@ -1350,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EE8AE8-C7D8-422C-BB56-DD8BE88C77A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1371,13 +1422,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="15" t="s">
         <v>39</v>
       </c>
